--- a/biology/Botanique/Sinojackia/Sinojackia.xlsx
+++ b/biology/Botanique/Sinojackia/Sinojackia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinojacka est un genre de plantes à fleurs de la famille des Styracacées. Ce sont des arbustes et de petits d'arbres à feuilles caduques originaires d'extrême orient, endémiques de Chine.
 Nom chinois : 秤锤树属
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de petits arbres ou d'arbustes caducs de 4 à 10 m de haut.
 Les feuilles sont alternes, simples et ovales, avec des poils étoilés et sans stipules (caractéristique de la famille).
@@ -546,7 +560,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sept espèces sont répertoriées (huit en comptant Sinojackia dolichocarpa, changé de genre récemment) :
 Sinojackia dolichocarpa C.J.Qi (1981) : voir Changiostyrax dolichocarpus (C.J.Qi) C.T.Chen
@@ -587,7 +603,9 @@
           <t>Répartition et menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces du genre sont originaires de Chine. Elles sont menacées dans leur habitat d'origine (utilisation du bois) et se régénèrent difficilement.
 Des programmes de conservation sont engagés pour maintenir les effectifs sauvages. La survie du genre est cependant assurée par sa diffusion horticole.
@@ -619,7 +637,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux espèces, Sinojackia rehderiana et Sinojackia xylocarpa, commencent à être utilisées comme plantes ornementales en France pour leur floraison et feuillage délicat
 			Port de Sinojackia rehderiana.
